--- a/上課用目錄/111-03程式設計職人養成/lesson9/氣象預測.xlsx
+++ b/上課用目錄/111-03程式設計職人養成/lesson9/氣象預測.xlsx
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>27.08</v>
+        <v>27.91</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -468,7 +468,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>26.28</v>
+        <v>26.84</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -486,7 +486,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>25.03</v>
+        <v>25.31</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
